--- a/biology/Biologie cellulaire et moléculaire/Brin_d'acide_nucléique/Brin_d'acide_nucléique.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Brin_d'acide_nucléique/Brin_d'acide_nucléique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Brin_d%27acide_nucl%C3%A9ique</t>
+          <t>Brin_d'acide_nucléique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les molécules d'acides nucléiques peuvent être assimilées à de long brins ou fil, mais à une échelle atomique.
 Il existe des molécules monocaténaires (formées d'un seul brin comme le brin d'ARN et certaines formes d'ADN) ou bicaténaires (formées de deux brins appariés, essentiellement le brin d'ADN).
